--- a/Qubit_on_CFX/2022_julia_engelmann_qubit/output/221102_JuliaPCR2qubit_WZA_CFX_analyses.xlsx
+++ b/Qubit_on_CFX/2022_julia_engelmann_qubit/output/221102_JuliaPCR2qubit_WZA_CFX_analyses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,129 +458,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WZA-7</t>
+          <t>WZA-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4451.1434496058</v>
+        <v>4451.14345</v>
       </c>
       <c r="C2" t="n">
-        <v>21.53808960172286</v>
+        <v>21.53808962184219</v>
       </c>
       <c r="D2" t="n">
-        <v>21.53808960172286</v>
+        <v>21.53808962184219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WZA-6</t>
+          <t>WZA-2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4854.2608748235</v>
+        <v>4854.260875</v>
       </c>
       <c r="C3" t="n">
-        <v>35.35910016577569</v>
+        <v>35.35910017806623</v>
       </c>
       <c r="D3" t="n">
-        <v>35.35910016577569</v>
+        <v>35.35910017806623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WZA-5</t>
+          <t>WZA-3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5022.88791726279</v>
+        <v>5022.887917</v>
       </c>
       <c r="C4" t="n">
-        <v>41.14053254538518</v>
+        <v>41.14053254246187</v>
       </c>
       <c r="D4" t="n">
-        <v>41.14053254538518</v>
+        <v>41.14053254246187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WZA-8</t>
+          <t>WZA-4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5072.59341971096</v>
+        <v>5072.59342</v>
       </c>
       <c r="C5" t="n">
-        <v>42.84470168185134</v>
+        <v>42.84470169780271</v>
       </c>
       <c r="D5" t="n">
-        <v>42.84470168185134</v>
+        <v>42.84470169780271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WZA-3</t>
+          <t>WZA-5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4810.65845577725</v>
+        <v>4810.658456</v>
       </c>
       <c r="C6" t="n">
-        <v>33.8641772064642</v>
+        <v>33.86417722037989</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8641772064642</v>
+        <v>33.86417722037989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WZA-4</t>
+          <t>WZA-6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728.06590765501</v>
+        <v>4728.065908</v>
       </c>
       <c r="C7" t="n">
-        <v>31.03246513275996</v>
+        <v>31.03246515094144</v>
       </c>
       <c r="D7" t="n">
-        <v>31.03246513275996</v>
+        <v>31.03246515094144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WZA-2</t>
+          <t>WZA-7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4720.62435854108</v>
+        <v>4720.624359</v>
       </c>
       <c r="C8" t="n">
-        <v>30.77732922822545</v>
+        <v>30.77732925031981</v>
       </c>
       <c r="D8" t="n">
-        <v>30.77732922822545</v>
+        <v>30.77732925031981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WZA-1</t>
+          <t>WZA-8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4480.86896824645</v>
+        <v>4480.868968</v>
       </c>
       <c r="C9" t="n">
-        <v>22.55723856788949</v>
+        <v>22.55723856601703</v>
       </c>
       <c r="D9" t="n">
-        <v>22.55723856788949</v>
+        <v>22.55723856601703</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4247.38010323982</v>
+        <v>4247.380103</v>
       </c>
       <c r="C10" t="n">
-        <v>14.55199774233449</v>
+        <v>14.55199774090073</v>
       </c>
       <c r="D10" t="n">
-        <v>14.55199774233449</v>
+        <v>14.55199774090073</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4219.82676011252</v>
+        <v>4219.82676</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6073225122034</v>
+        <v>13.60732251515908</v>
       </c>
       <c r="D11" t="n">
-        <v>13.6073225122034</v>
+        <v>13.60732251515908</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4227.24229238695</v>
+        <v>4227.242292</v>
       </c>
       <c r="C12" t="n">
-        <v>13.86156642102878</v>
+        <v>13.86156641456883</v>
       </c>
       <c r="D12" t="n">
-        <v>13.86156642102878</v>
+        <v>13.86156641456883</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4500.77883285911</v>
+        <v>4500.778833</v>
       </c>
       <c r="C13" t="n">
-        <v>23.23985467904326</v>
+        <v>23.23985469043289</v>
       </c>
       <c r="D13" t="n">
-        <v>23.23985467904326</v>
+        <v>23.23985469043289</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4371.10647629329</v>
+        <v>4371.106476</v>
       </c>
       <c r="C14" t="n">
-        <v>18.79399623222977</v>
+        <v>18.79399622885075</v>
       </c>
       <c r="D14" t="n">
-        <v>18.79399623222977</v>
+        <v>18.79399622885075</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4723.70199774036</v>
+        <v>4723.701998</v>
       </c>
       <c r="C15" t="n">
-        <v>30.88284707792548</v>
+        <v>30.88284709318467</v>
       </c>
       <c r="D15" t="n">
-        <v>30.88284707792548</v>
+        <v>30.88284709318467</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4681.31335911988</v>
+        <v>4681.313359</v>
       </c>
       <c r="C16" t="n">
-        <v>29.42953897085697</v>
+        <v>29.42953897314256</v>
       </c>
       <c r="D16" t="n">
-        <v>29.42953897085697</v>
+        <v>29.42953897314256</v>
       </c>
     </row>
     <row r="17">
@@ -702,141 +702,141 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4264.14237541808</v>
+        <v>4264.142375</v>
       </c>
       <c r="C17" t="n">
-        <v>15.12669763462555</v>
+        <v>15.12669762706491</v>
       </c>
       <c r="D17" t="n">
-        <v>15.12669763462555</v>
+        <v>15.12669762706491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WZA-23</t>
+          <t>WZA-17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4586.76729332514</v>
+        <v>4586.767293</v>
       </c>
       <c r="C18" t="n">
-        <v>26.18799669956205</v>
+        <v>26.18799669489584</v>
       </c>
       <c r="D18" t="n">
-        <v>26.18799669956205</v>
+        <v>26.18799669489584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WZA-22</t>
+          <t>WZA-18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4489.01799816367</v>
+        <v>4489.017998</v>
       </c>
       <c r="C19" t="n">
-        <v>22.83663067928695</v>
+        <v>22.83663068024527</v>
       </c>
       <c r="D19" t="n">
-        <v>22.83663067928695</v>
+        <v>22.83663068024527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WZA-21</t>
+          <t>WZA-19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4391.69577796898</v>
+        <v>4391.695778</v>
       </c>
       <c r="C20" t="n">
-        <v>19.49990706159297</v>
+        <v>19.49990706931439</v>
       </c>
       <c r="D20" t="n">
-        <v>19.49990706159297</v>
+        <v>19.49990706931439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WZA-24</t>
+          <t>WZA-20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4439.94225729151</v>
+        <v>4439.942257</v>
       </c>
       <c r="C21" t="n">
-        <v>21.15405312098233</v>
+        <v>21.15405311760201</v>
       </c>
       <c r="D21" t="n">
-        <v>21.15405312098233</v>
+        <v>21.15405311760201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WZA-19</t>
+          <t>WZA-21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4659.85413790379</v>
+        <v>4659.854138</v>
       </c>
       <c r="C22" t="n">
-        <v>28.69380267028956</v>
+        <v>28.69380268000329</v>
       </c>
       <c r="D22" t="n">
-        <v>28.69380267028956</v>
+        <v>28.69380268000329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WZA-20</t>
+          <t>WZA-22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4548.23325246774</v>
+        <v>4548.233252</v>
       </c>
       <c r="C23" t="n">
-        <v>24.86684471641931</v>
+        <v>24.86684470689887</v>
       </c>
       <c r="D23" t="n">
-        <v>24.86684471641931</v>
+        <v>24.86684470689887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WZA-17</t>
+          <t>WZA-23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4348.0101508191</v>
+        <v>4348.010151</v>
       </c>
       <c r="C24" t="n">
-        <v>18.00213128568921</v>
+        <v>18.00213129858887</v>
       </c>
       <c r="D24" t="n">
-        <v>18.00213128568921</v>
+        <v>18.00213129858887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WZA-18</t>
+          <t>WZA-24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4702.26540948605</v>
+        <v>4702.265409</v>
       </c>
       <c r="C25" t="n">
-        <v>30.14788675573136</v>
+        <v>30.14788674544372</v>
       </c>
       <c r="D25" t="n">
-        <v>30.14788675573136</v>
+        <v>30.14788674544372</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4665.80298666394</v>
+        <v>4665.802987</v>
       </c>
       <c r="C26" t="n">
-        <v>28.89776086315008</v>
+        <v>28.89776088108177</v>
       </c>
       <c r="D26" t="n">
-        <v>28.89776086315008</v>
+        <v>28.89776088108177</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4527.70877369521</v>
+        <v>4527.708774</v>
       </c>
       <c r="C27" t="n">
-        <v>24.16315636113765</v>
+        <v>24.16315637812223</v>
       </c>
       <c r="D27" t="n">
-        <v>24.16315636113765</v>
+        <v>24.16315637812223</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4784.14991979469</v>
+        <v>4784.14992</v>
       </c>
       <c r="C28" t="n">
-        <v>32.95532352529502</v>
+        <v>32.95532353863678</v>
       </c>
       <c r="D28" t="n">
-        <v>32.95532352529502</v>
+        <v>32.95532353863678</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4520.51035679143</v>
+        <v>4520.510357</v>
       </c>
       <c r="C29" t="n">
-        <v>23.91635632261819</v>
+        <v>23.91635633631036</v>
       </c>
       <c r="D29" t="n">
-        <v>23.91635632261819</v>
+        <v>23.91635633631036</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4499.05712767574</v>
+        <v>4499.057128</v>
       </c>
       <c r="C30" t="n">
-        <v>23.18082546314002</v>
+        <v>23.18082548081809</v>
       </c>
       <c r="D30" t="n">
-        <v>23.18082546314002</v>
+        <v>23.18082548081809</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4580.7105583141</v>
+        <v>4580.710558</v>
       </c>
       <c r="C31" t="n">
-        <v>25.98033959189413</v>
+        <v>25.98033958761189</v>
       </c>
       <c r="D31" t="n">
-        <v>25.98033959189413</v>
+        <v>25.98033958761189</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4719.481839585</v>
+        <v>4719.48184</v>
       </c>
       <c r="C32" t="n">
-        <v>30.73815759838809</v>
+        <v>30.73815761897769</v>
       </c>
       <c r="D32" t="n">
-        <v>30.73815759838809</v>
+        <v>30.73815761897769</v>
       </c>
     </row>
     <row r="33">
@@ -958,323 +958,141 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4360.93286117437</v>
+        <v>4360.932861</v>
       </c>
       <c r="C33" t="n">
-        <v>18.44519056609598</v>
+        <v>18.44519056680338</v>
       </c>
       <c r="D33" t="n">
-        <v>18.44519056609598</v>
+        <v>18.44519056680338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WZA-39</t>
+          <t>WZA-33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4672.61261028689</v>
+        <v>4672.61261</v>
       </c>
       <c r="C34" t="n">
-        <v>29.13123099900241</v>
+        <v>29.13123099556989</v>
       </c>
       <c r="D34" t="n">
-        <v>29.13123099900241</v>
+        <v>29.13123099556989</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WZA-38</t>
+          <t>WZA-34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4217.62332816975</v>
+        <v>4217.623328</v>
       </c>
       <c r="C35" t="n">
-        <v>13.53177713943329</v>
+        <v>13.53177714042882</v>
       </c>
       <c r="D35" t="n">
-        <v>13.53177713943329</v>
+        <v>13.53177714042882</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WZA-40</t>
+          <t>WZA-35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4583.4827018241</v>
+        <v>4583.482702</v>
       </c>
       <c r="C36" t="n">
-        <v>26.0753834236414</v>
+        <v>26.07538343615647</v>
       </c>
       <c r="D36" t="n">
-        <v>26.0753834236414</v>
+        <v>26.07538343615647</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WZA-37</t>
+          <t>WZA-36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4476.33800950224</v>
+        <v>4476.33801</v>
       </c>
       <c r="C37" t="n">
-        <v>22.40189319021153</v>
+        <v>22.40189321385866</v>
       </c>
       <c r="D37" t="n">
-        <v>22.40189319021153</v>
+        <v>22.40189321385866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WZA-36</t>
+          <t>WZA-37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4281.34984028455</v>
+        <v>4281.34984</v>
       </c>
       <c r="C38" t="n">
-        <v>15.71666110140354</v>
+        <v>15.71666109840543</v>
       </c>
       <c r="D38" t="n">
-        <v>15.71666110140354</v>
+        <v>15.71666109840543</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WZA-35</t>
+          <t>WZA-38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4178.95580315005</v>
+        <v>4178.955803</v>
       </c>
       <c r="C39" t="n">
-        <v>12.20604860885827</v>
+        <v>12.20604861056421</v>
       </c>
       <c r="D39" t="n">
-        <v>12.20604860885827</v>
+        <v>12.20604861056421</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WZA-34</t>
+          <t>WZA-39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4199.76662926538</v>
+        <v>4199.766629</v>
       </c>
       <c r="C40" t="n">
-        <v>12.91955447487564</v>
+        <v>12.9195544726086</v>
       </c>
       <c r="D40" t="n">
-        <v>12.91955447487564</v>
+        <v>12.9195544726086</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WZA-33</t>
+          <t>WZA-40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4682.53520101532</v>
+        <v>4682.535201</v>
       </c>
       <c r="C41" t="n">
-        <v>29.47143021318012</v>
+        <v>29.47143021904947</v>
       </c>
       <c r="D41" t="n">
-        <v>29.47143021318012</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>WZA-41</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4419.38145425715</v>
-      </c>
-      <c r="C42" t="n">
-        <v>20.44911937670214</v>
-      </c>
-      <c r="D42" t="n">
-        <v>20.44911937670214</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>WZA-42</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4314.18332575777</v>
-      </c>
-      <c r="C43" t="n">
-        <v>16.84236770993078</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16.84236770993078</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>WZA-43</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4220.11705625562</v>
-      </c>
-      <c r="C44" t="n">
-        <v>13.61727540882731</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13.61727540882731</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>WZA-44</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4252.06533528589</v>
-      </c>
-      <c r="C45" t="n">
-        <v>14.71263242978023</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.71263242978023</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>WZA-45</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4252.87260136259</v>
-      </c>
-      <c r="C46" t="n">
-        <v>14.74030980683246</v>
-      </c>
-      <c r="D46" t="n">
-        <v>14.74030980683246</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>WZA-46</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4317.67735628055</v>
-      </c>
-      <c r="C47" t="n">
-        <v>16.96216167006632</v>
-      </c>
-      <c r="D47" t="n">
-        <v>16.96216167006632</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>WZA-47</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4296.92523644287</v>
-      </c>
-      <c r="C48" t="n">
-        <v>16.25066856765783</v>
-      </c>
-      <c r="D48" t="n">
-        <v>16.25066856765783</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>WZA-48</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3859.54350176937</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.254895134689437</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>measure with HS kit</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>A NTC1 c2</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4995.68270135334</v>
-      </c>
-      <c r="C50" t="n">
-        <v>40.20779296887397</v>
-      </c>
-      <c r="D50" t="n">
-        <v>40.20779296887397</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>A mock c2</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3800.31953205559</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.7756177130676474</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>measure with HS kit</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>A NC2 c2</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3633.46962619307</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-6.496120393624711</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>measure with HS kit</t>
-        </is>
+        <v>29.47143021904947</v>
       </c>
     </row>
   </sheetData>
